--- a/data/smile_tasks.xlsx
+++ b/data/smile_tasks.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>testname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,20 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ecxept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "id": 421,
-    "username": "jxn",
-    "password": "$2a$10$OPFeWtW7KAPtES0bKy4P0uK58GQzE1Pl7UazGPet4EeYa6xaBYmae",
-    "updatedAt": "2017-10-13T05:53:35.000Z",
-    "createdAt": "2017-10-13T05:53:35.000Z"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://139.199.192.100:3000/register</t>
   </si>
   <si>
@@ -131,6 +117,42 @@
   </si>
   <si>
     <t>all_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.199.192.100:3000/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing username or password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password cofirm error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid username/password combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +175,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,12 +201,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,9 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -500,11 +537,10 @@
     <col min="6" max="6" width="18.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -515,13 +551,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -532,11 +568,8 @@
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="158.4">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -544,40 +577,37 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8">
+    </row>
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -589,21 +619,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8">
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -615,21 +645,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -641,15 +671,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.8">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -661,24 +691,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8">
+    <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -699,15 +729,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/data/smile_tasks.xlsx
+++ b/data/smile_tasks.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mothod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +145,10 @@
   </si>
   <si>
     <t>401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,201 +523,201 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="41.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="27">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -731,20 +731,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="28.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -752,138 +752,138 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8">
+    </row>
+    <row r="6" spans="1:8" ht="27">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +906,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/smile_tasks.xlsx
+++ b/data/smile_tasks.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="createtask" sheetId="5" r:id="rId3"/>
+    <sheet name="alltasks" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="45">
   <si>
     <t>testname</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +154,46 @@
   </si>
   <si>
     <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.199.192.100:3000/api/tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>titlenull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testdesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -732,7 +773,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -787,7 +828,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -902,12 +943,266 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
